--- a/Daily_Scrum.xlsx
+++ b/Daily_Scrum.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B04ECF5-94A2-4E19-B417-AD3427F7E3AC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042D554-1DB5-421F-96A3-191C4A9D0DBE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Scrum" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -61,26 +61,68 @@
     <t>GUI &amp; Allgeimein Beschreibung</t>
   </si>
   <si>
-    <t>User Stories &amp; Funktionalitätsbeschreibung</t>
-  </si>
-  <si>
     <t>Data Modell &amp; Datenbank angelegt</t>
   </si>
   <si>
     <t>User Stories und Funktionalitätsbeschreibung</t>
+  </si>
+  <si>
+    <t>Location in Datenbank abspeichern</t>
+  </si>
+  <si>
+    <t>Funktionalitätsbeschreibung</t>
+  </si>
+  <si>
+    <t>˗</t>
+  </si>
+  <si>
+    <t>User Storys</t>
+  </si>
+  <si>
+    <t>Visio Story Map</t>
+  </si>
+  <si>
+    <t>User Story überarbeiten</t>
+  </si>
+  <si>
+    <t>Datenbank and Data Model</t>
+  </si>
+  <si>
+    <t>create test Data</t>
+  </si>
+  <si>
+    <t>User Storys &amp; Funktionalitätsbeschreibung</t>
+  </si>
+  <si>
+    <t>User Storys überarbeiten</t>
+  </si>
+  <si>
+    <t>GUI</t>
+  </si>
+  <si>
+    <t>Allgemeine Beschreibung</t>
+  </si>
+  <si>
+    <t>GitHub</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -161,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -175,24 +217,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -473,75 +519,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U13"/>
+  <dimension ref="A1:U18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="3.7109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
-    <col min="6" max="6" width="1.85546875" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="1.85546875" customWidth="1"/>
-    <col min="11" max="11" width="17.140625" customWidth="1"/>
-    <col min="12" max="12" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" customWidth="1"/>
-    <col min="14" max="14" width="1.85546875" customWidth="1"/>
-    <col min="15" max="15" width="29.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="1.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.26171875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.68359375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="23.1015625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.47265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.83984375" customWidth="1"/>
+    <col min="7" max="7" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.3671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="1.83984375" customWidth="1"/>
+    <col min="11" max="11" width="23.1015625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="34.7890625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="1.83984375" customWidth="1"/>
+    <col min="15" max="15" width="12.47265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.7890625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="1.83984375" customWidth="1"/>
+    <col min="19" max="19" width="20.578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.3125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="25.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="10" t="s">
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="10" t="s">
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="10" t="s">
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="10" t="s">
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="12"/>
-    </row>
-    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11" t="s">
+      <c r="S1" s="12"/>
+      <c r="T1" s="12"/>
+      <c r="U1" s="13"/>
+    </row>
+    <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="14"/>
+      <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -550,10 +597,10 @@
       <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -565,7 +612,7 @@
       <c r="I2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -577,7 +624,7 @@
       <c r="M2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="O2" s="4" t="s">
@@ -589,7 +636,7 @@
       <c r="Q2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="8" t="s">
         <v>9</v>
       </c>
       <c r="S2" s="4" t="s">
@@ -598,11 +645,11 @@
       <c r="T2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>43164</v>
       </c>
@@ -612,24 +659,27 @@
       <c r="C3" s="3"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
         <v>10</v>
       </c>
       <c r="M3" t="s">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N3" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="14" t="s">
+      <c r="Q3" s="10" t="s">
         <v>11</v>
       </c>
       <c r="R3" t="s">
@@ -639,32 +689,38 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>43165</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>10</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
         <v>10</v>
       </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
       <c r="M4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="N4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="9" t="s">
+      <c r="Q4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="R4" t="s">
@@ -674,7 +730,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3">
         <v>43166</v>
       </c>
@@ -682,18 +738,373 @@
         <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="I5" t="s">
-        <v>14</v>
-      </c>
-      <c r="O5" s="9"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E13" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="J5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" s="7"/>
+      <c r="Q5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="3">
+        <v>43167</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M6" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="R6" t="s">
+        <v>10</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="3">
+        <v>43168</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" t="s">
+        <v>10</v>
+      </c>
+      <c r="K7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N7" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q7" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="R7" t="s">
+        <v>10</v>
+      </c>
+      <c r="S7" t="s">
+        <v>26</v>
+      </c>
+      <c r="U7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="3">
+        <v>43171</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" t="s">
+        <v>10</v>
+      </c>
+      <c r="U9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="3">
+        <v>43172</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N10" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R10" t="s">
+        <v>10</v>
+      </c>
+      <c r="U10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="3">
+        <v>43173</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="R11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="3">
+        <v>43174</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>25</v>
+      </c>
+      <c r="R12" t="s">
+        <v>10</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="3">
+        <v>43175</v>
+      </c>
+      <c r="B13" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>10</v>
+      </c>
+      <c r="K13" t="s">
+        <v>24</v>
+      </c>
+      <c r="N13" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>25</v>
+      </c>
+      <c r="R13" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="3">
+        <v>43179</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J15" t="s">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>25</v>
+      </c>
+      <c r="R15" t="s">
+        <v>10</v>
+      </c>
+      <c r="U15" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="3">
+        <v>43180</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J16" t="s">
+        <v>10</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>10</v>
+      </c>
+      <c r="R16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="3">
+        <v>43181</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" t="s">
+        <v>10</v>
+      </c>
+      <c r="R17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="3">
+        <v>43182</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J18" t="s">
+        <v>10</v>
+      </c>
+      <c r="N18" t="s">
+        <v>10</v>
+      </c>
+      <c r="R18" t="s">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -705,5 +1116,6 @@
     <mergeCell ref="N1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Daily_Scrum.xlsx
+++ b/Daily_Scrum.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F042D554-1DB5-421F-96A3-191C4A9D0DBE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E748FD-1178-4EFE-BAE0-50125FD4C65F}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="28">
   <si>
     <t>Datum</t>
   </si>
@@ -223,6 +223,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -235,10 +239,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -523,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K18" sqref="K18"/>
+      <selection pane="topRight" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -552,42 +552,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="11" t="s">
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="11" t="s">
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="11" t="s">
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="11" t="s">
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="13"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="14"/>
+      <c r="U1" s="15"/>
     </row>
     <row r="2" spans="1:21" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="14"/>
+      <c r="A2" s="16"/>
       <c r="B2" s="8" t="s">
         <v>9</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="N7" t="s">
         <v>10</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="Q7" s="12" t="s">
         <v>25</v>
       </c>
       <c r="R7" t="s">
@@ -902,7 +902,7 @@
       <c r="M10" t="s">
         <v>24</v>
       </c>
-      <c r="N10" s="15" t="s">
+      <c r="N10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R10" t="s">
@@ -937,7 +937,7 @@
       <c r="M11" t="s">
         <v>24</v>
       </c>
-      <c r="N11" s="15" t="s">
+      <c r="N11" s="11" t="s">
         <v>17</v>
       </c>
       <c r="R11" t="s">
@@ -983,7 +983,7 @@
       <c r="A13" s="3">
         <v>43175</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>17</v>
       </c>
       <c r="C13" t="s">
@@ -1062,11 +1062,17 @@
       <c r="N16" t="s">
         <v>10</v>
       </c>
+      <c r="Q16" t="s">
+        <v>25</v>
+      </c>
       <c r="R16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="U16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3">
         <v>43181</v>
       </c>
@@ -1082,11 +1088,17 @@
       <c r="N17" t="s">
         <v>10</v>
       </c>
+      <c r="Q17" t="s">
+        <v>25</v>
+      </c>
       <c r="R17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="U17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3">
         <v>43182</v>
       </c>
@@ -1099,11 +1111,20 @@
       <c r="J18" t="s">
         <v>10</v>
       </c>
+      <c r="M18" t="s">
+        <v>24</v>
+      </c>
       <c r="N18" t="s">
         <v>10</v>
       </c>
+      <c r="Q18" t="s">
+        <v>25</v>
+      </c>
       <c r="R18" t="s">
         <v>10</v>
+      </c>
+      <c r="U18" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
